--- a/data/spring-cloud-shop/shop-elasticsearch-model_structure.xlsx
+++ b/data/spring-cloud-shop/shop-elasticsearch-model_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="118">
   <si>
     <t>Class Name</t>
   </si>
@@ -249,63 +249,63 @@
     <t>long</t>
   </si>
   <si>
+    <t>orderStatus</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
     <t>orderId</t>
   </si>
   <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>orderCode</t>
+  </si>
+  <si>
+    <t>orderType</t>
+  </si>
+  <si>
     <t>beginTime</t>
   </si>
   <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>orderCode</t>
-  </si>
-  <si>
-    <t>endTime</t>
-  </si>
-  <si>
-    <t>orderStatus</t>
-  </si>
-  <si>
-    <t>orderType</t>
-  </si>
-  <si>
-    <t>userId</t>
+    <t>ORDER_TIME_KEY</t>
   </si>
   <si>
     <t>SKU_AMOUNT_KEY</t>
   </si>
   <si>
-    <t>ORDER_TIME_KEY</t>
+    <t>USER_ID_KEY</t>
+  </si>
+  <si>
+    <t>ORDER_ID_KEY</t>
+  </si>
+  <si>
+    <t>ORDER_CODE_KEY</t>
+  </si>
+  <si>
+    <t>ORDER_TYPE_KEY</t>
   </si>
   <si>
     <t>ORDER_STATUS_KEY</t>
   </si>
   <si>
-    <t>ORDER_TYPE_KEY</t>
-  </si>
-  <si>
-    <t>ORDER_CODE_KEY</t>
-  </si>
-  <si>
-    <t>USER_ID_KEY</t>
-  </si>
-  <si>
-    <t>ORDER_ID_KEY</t>
+    <t>goodsName</t>
+  </si>
+  <si>
+    <t>keyword</t>
   </si>
   <si>
     <t>sort</t>
   </si>
   <si>
-    <t>keyword</t>
-  </si>
-  <si>
     <t>goodsClassId</t>
   </si>
   <si>
-    <t>goodsName</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -367,9 +367,6 @@
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>117</t>
@@ -1627,7 +1624,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1682,21 +1679,21 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
@@ -1704,10 +1701,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8">
@@ -1715,10 +1712,10 @@
         <v>16</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
@@ -1726,18 +1723,18 @@
         <v>16</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>115</v>
@@ -1745,10 +1742,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>113</v>
@@ -1759,10 +1756,10 @@
         <v>18</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
@@ -1770,7 +1767,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>113</v>
@@ -1781,10 +1778,10 @@
         <v>18</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
@@ -1792,10 +1789,10 @@
         <v>18</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16">
@@ -1803,7 +1800,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>113</v>
@@ -1814,7 +1811,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>113</v>
@@ -1825,7 +1822,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>113</v>
@@ -1836,7 +1833,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>113</v>
@@ -1847,7 +1844,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>113</v>
@@ -1858,7 +1855,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>113</v>
@@ -1869,7 +1866,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>113</v>
@@ -1880,7 +1877,7 @@
         <v>18</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>113</v>
@@ -1891,7 +1888,7 @@
         <v>18</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>113</v>
@@ -1902,7 +1899,7 @@
         <v>18</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>113</v>
@@ -1913,7 +1910,7 @@
         <v>18</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>113</v>
@@ -1924,7 +1921,7 @@
         <v>18</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>113</v>
@@ -1935,7 +1932,7 @@
         <v>18</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>113</v>
@@ -1946,7 +1943,7 @@
         <v>18</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>113</v>
@@ -1954,21 +1951,21 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>113</v>
@@ -1976,13 +1973,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
@@ -1990,48 +1987,48 @@
         <v>50</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s" s="0">
         <v>8</v>
@@ -2042,18 +2039,18 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s" s="0">
         <v>12</v>
@@ -2064,32 +2061,32 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s" s="0">
         <v>14</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>113</v>
@@ -2100,10 +2097,10 @@
         <v>55</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44">
@@ -2111,7 +2108,7 @@
         <v>55</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>113</v>
@@ -2122,10 +2119,10 @@
         <v>55</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46">
@@ -2133,10 +2130,10 @@
         <v>55</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47">
@@ -2144,7 +2141,7 @@
         <v>55</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>113</v>
@@ -2155,7 +2152,7 @@
         <v>55</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>113</v>
@@ -2166,7 +2163,7 @@
         <v>55</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>113</v>
@@ -2177,7 +2174,7 @@
         <v>55</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>113</v>
@@ -2188,75 +2185,9 @@
         <v>55</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="B52" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="C52" t="s" s="0">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="B53" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C53" t="s" s="0">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="B54" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="C54" t="s" s="0">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="C55" t="s" s="0">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="C56" t="s" s="0">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C57" t="s" s="0">
         <v>113</v>
       </c>
     </row>
@@ -2353,7 +2284,7 @@
         <v>73</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2381,7 +2312,7 @@
         <v>73</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -2395,7 +2326,7 @@
         <v>73</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -2403,13 +2334,13 @@
         <v>18</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
@@ -2417,13 +2348,13 @@
         <v>18</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -2465,7 +2396,7 @@
         <v>73</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -2543,7 +2474,7 @@
         <v>54</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>6</v>
@@ -2557,7 +2488,7 @@
         <v>54</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>6</v>
@@ -2571,7 +2502,7 @@
         <v>54</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>6</v>
@@ -2619,7 +2550,7 @@
         <v>73</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>64</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -2627,7 +2558,7 @@
         <v>55</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>73</v>
@@ -2641,13 +2572,13 @@
         <v>55</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2655,13 +2586,13 @@
         <v>55</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27">
@@ -2669,7 +2600,7 @@
         <v>55</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>73</v>
@@ -2683,13 +2614,13 @@
         <v>55</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>73</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
